--- a/4_清晖PMP备考试卷拆解利器.xlsx
+++ b/4_清晖PMP备考试卷拆解利器.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63422061-D3AB-43EE-B35A-8565A320C63A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF23A8A-047A-4E73-A2EA-DE66566DBB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7830" yWindow="1035" windowWidth="43515" windowHeight="15150" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="45">
   <si>
     <r>
       <rPr>
@@ -1138,6 +1141,10 @@
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1396,7 +1403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1481,6 +1488,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1823,32 +1833,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1"/>
-    <col min="2" max="2" width="100.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="100.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="34" customHeight="1"/>
+    <row r="1" spans="2:2" ht="33.950000000000003" customHeight="1"/>
     <row r="2" spans="2:2" ht="51">
       <c r="B2" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="31" customHeight="1">
+    <row r="3" spans="2:2" ht="30.95" customHeight="1">
       <c r="B3" s="22"/>
     </row>
-    <row r="4" spans="2:2" ht="59" customHeight="1">
+    <row r="4" spans="2:2" ht="59.1" customHeight="1">
       <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="30" customHeight="1"/>
-    <row r="6" spans="2:2" ht="255">
+    <row r="6" spans="2:2" ht="242.25">
       <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
@@ -1864,16 +1874,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="33.08203125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="33.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="36" customHeight="1">
@@ -1922,11 +1932,11 @@
       </c>
       <c r="E4" s="10">
         <f>COUNTIFS(B24:B223,"4.1",C24:C223,"X")+COUNTIFS(B24:B223,"13.1",C24:C223,"X")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="11">
         <f>(D4-E4)/D4</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1968,14 +1978,14 @@
       </c>
       <c r="E6" s="10">
         <f>COUNTIFS(B24:B223,"4.6",C24:C223,"X")</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" ref="F6:F19" si="0">(D6-E6)/D6</f>
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1991,11 +2001,11 @@
       </c>
       <c r="E7" s="10">
         <f>COUNTIFS(B24:B223,"8.2",C24:C223,"X")+COUNTIFS(B24:B223,"9.6",C24:C223,"X")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>0.6470588235294118</v>
+        <v>0.76470588235294112</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2014,11 +2024,11 @@
       </c>
       <c r="E8" s="10">
         <f>COUNTIFS(B24:B223,"11.1",C24:C223,"X")+COUNTIFS(B24:B223,"11.2",C24:C223,"X")+COUNTIFS(B24:B223,"11.3",C24:C223,"X")+COUNTIFS(B24:B223,"11.4",C24:C223,"X")+COUNTIFS(B24:B223,"11.5",C24:C223,"X")+COUNTIFS(B24:B223,"11.6",C24:C223,"X")+COUNTIFS(B24:B223,"11.7",C24:C223,"X")</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2037,14 +2047,14 @@
       </c>
       <c r="E9" s="10">
         <f>COUNTIFS(B24:B223,"4.2",C24:C223,"X")+COUNTIFS(B24:B223,"4.3",C24:C223,"X")+COUNTIFS(B24:B223,"4.4",C24:C223,"X")+COUNTIFS(B24:B223,"4.5",C24:C223,"X")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>0.44444444444444442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -2060,11 +2070,11 @@
       </c>
       <c r="E10" s="10">
         <f>COUNTIFS(B24:B223,"5.1",C24:C223,"X")+COUNTIFS(B24:B223,"5.2",C24:C223,"X")+COUNTIFS(B24:B223,"5.3",C24:C223,"X")+COUNTIFS(B24:B223,"5.4",C24:C223,"X")+COUNTIFS(B24:B223,"5.6",C24:C223,"X")</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
-        <v>0.36363636363636365</v>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2083,11 +2093,11 @@
       </c>
       <c r="E11" s="10">
         <f>COUNTIFS(B24:B223,"6.1",C24:C223,"X")+COUNTIFS(B24:B223,"6.2",C24:C223,"X")+COUNTIFS(B24:B223,"6.3",C24:C223,"X")+COUNTIFS(B24:B223,"6.4",C24:C223,"X")+COUNTIFS(B24:B223,"6.5",C24:C223,"X")+COUNTIFS(B24:B223,"6.6",C24:C223,"X")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2106,11 +2116,11 @@
       </c>
       <c r="E12" s="10">
         <f>COUNTIFS(B24:B223,"7.1",C24:C223,"X")+COUNTIFS(B24:B223,"7.2",C24:C223,"X")+COUNTIFS(B24:B223,"7.3",C24:C223,"X")+COUNTIFS(B24:B223,"7.4",C24:C223,"X")</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2129,11 +2139,11 @@
       </c>
       <c r="E13" s="10">
         <f>COUNTIFS(B24:B223,"8.1",C24:C223,"X")+COUNTIFS(B24:B223,"8.3",C24:C223,"X")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2175,11 +2185,11 @@
       </c>
       <c r="E15" s="10">
         <f>COUNTIFS(B24:B223,"13.2",C24:C223,"X")+COUNTIFS(B24:B223,"13.3",C24:C223,"X")+COUNTIFS(B24:B223,"13.4",C24:C223,"X")</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2198,11 +2208,11 @@
       </c>
       <c r="E16" s="10">
         <f>COUNTIFS(B24:B223,"10.1",C24:C223,"X")+COUNTIFS(B24:B223,"10.2",C24:C223,"X")+COUNTIFS(B24:B223,"10.3",C24:C223,"X")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="0"/>
-        <v>0.6875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2244,11 +2254,11 @@
       </c>
       <c r="E18" s="10">
         <f>COUNTIF(C24:C223,"X")-SUM(E4:E17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2261,14 +2271,14 @@
       </c>
       <c r="E19" s="18">
         <f>SUM(E4:E18)</f>
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F19" s="19">
         <f t="shared" si="0"/>
-        <v>0.51500000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="43" customHeight="1">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="42.95" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>38</v>
       </c>
@@ -2293,7 +2303,9 @@
       <c r="B24" s="9">
         <v>11.2</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="7">
@@ -2302,7 +2314,9 @@
       <c r="B25" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="7">
@@ -2329,7 +2343,9 @@
       <c r="B28" s="9">
         <v>8.1</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="7">
@@ -2356,9 +2372,7 @@
       <c r="B31" s="9">
         <v>9.4</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C31" s="20"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="7">
@@ -2367,7 +2381,9 @@
       <c r="B32" s="9">
         <v>9.1</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="7">
@@ -2376,9 +2392,7 @@
       <c r="B33" s="9">
         <v>6.6</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C33" s="20"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="7">
@@ -2396,9 +2410,7 @@
       <c r="B35" s="9">
         <v>5.2</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C35" s="20"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="7">
@@ -2436,9 +2448,7 @@
       <c r="B39" s="9">
         <v>11.7</v>
       </c>
-      <c r="C39" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C39" s="20"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="7">
@@ -2456,9 +2466,7 @@
       <c r="B41" s="9">
         <v>13.2</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C41" s="20"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="7">
@@ -2476,9 +2484,7 @@
       <c r="B43" s="9">
         <v>5.2</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C43" s="20"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="7">
@@ -2536,9 +2542,7 @@
       <c r="B49" s="9">
         <v>11.2</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C49" s="20"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="7">
@@ -2556,9 +2560,7 @@
       <c r="B51" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C51" s="20"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="7">
@@ -2576,9 +2578,7 @@
       <c r="B53" s="9">
         <v>13.3</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C53" s="20"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="7">
@@ -2587,7 +2587,9 @@
       <c r="B54" s="9">
         <v>7.4</v>
       </c>
-      <c r="C54" s="20"/>
+      <c r="C54" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="7">
@@ -2596,8 +2598,8 @@
       <c r="B55" s="9">
         <v>11.7</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>42</v>
+      <c r="C55" s="29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2616,9 +2618,7 @@
       <c r="B57" s="9">
         <v>13.4</v>
       </c>
-      <c r="C57" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C57" s="20"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="7">
@@ -2627,7 +2627,9 @@
       <c r="B58" s="9">
         <v>11.2</v>
       </c>
-      <c r="C58" s="20"/>
+      <c r="C58" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="7">
@@ -2636,9 +2638,7 @@
       <c r="B59" s="9">
         <v>13.2</v>
       </c>
-      <c r="C59" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C59" s="20"/>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="7">
@@ -2647,7 +2647,9 @@
       <c r="B60" s="9">
         <v>11.3</v>
       </c>
-      <c r="C60" s="20"/>
+      <c r="C60" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="7">
@@ -2656,9 +2658,7 @@
       <c r="B61" s="9">
         <v>9.1</v>
       </c>
-      <c r="C61" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C61" s="20"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="7">
@@ -2696,9 +2696,7 @@
       <c r="B65" s="9">
         <v>13.2</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C65" s="20"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="7">
@@ -2707,7 +2705,9 @@
       <c r="B66" s="9">
         <v>11.4</v>
       </c>
-      <c r="C66" s="20"/>
+      <c r="C66" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="7">
@@ -2716,8 +2716,8 @@
       <c r="B67" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="C67" s="20" t="s">
-        <v>42</v>
+      <c r="C67" s="29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2756,9 +2756,7 @@
       <c r="B71" s="9">
         <v>7.4</v>
       </c>
-      <c r="C71" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C71" s="20"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="7">
@@ -2767,7 +2765,9 @@
       <c r="B72" s="9">
         <v>5.6</v>
       </c>
-      <c r="C72" s="20"/>
+      <c r="C72" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="7">
@@ -2776,9 +2776,7 @@
       <c r="B73" s="9">
         <v>9.5</v>
       </c>
-      <c r="C73" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C73" s="20"/>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="7">
@@ -2796,9 +2794,7 @@
       <c r="B75" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C75" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C75" s="20"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="7">
@@ -2827,7 +2823,9 @@
       <c r="B78" s="9">
         <v>4.2</v>
       </c>
-      <c r="C78" s="20"/>
+      <c r="C78" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="7">
@@ -2836,9 +2834,7 @@
       <c r="B79" s="9">
         <v>11.5</v>
       </c>
-      <c r="C79" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C79" s="20"/>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="7">
@@ -2856,9 +2852,7 @@
       <c r="B81" s="9">
         <v>7.4</v>
       </c>
-      <c r="C81" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C81" s="20"/>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="7">
@@ -2867,7 +2861,9 @@
       <c r="B82" s="9">
         <v>13.4</v>
       </c>
-      <c r="C82" s="20"/>
+      <c r="C82" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="7">
@@ -2876,9 +2872,7 @@
       <c r="B83" s="9">
         <v>11.2</v>
       </c>
-      <c r="C83" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C83" s="20"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="7">
@@ -2927,7 +2921,9 @@
       <c r="B88" s="9">
         <v>9.1</v>
       </c>
-      <c r="C88" s="20"/>
+      <c r="C88" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="7">
@@ -2936,9 +2932,7 @@
       <c r="B89" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C89" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C89" s="20"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="7">
@@ -2956,9 +2950,7 @@
       <c r="B91" s="9">
         <v>7.4</v>
       </c>
-      <c r="C91" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C91" s="20"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="7">
@@ -2967,7 +2959,9 @@
       <c r="B92" s="9">
         <v>7.2</v>
       </c>
-      <c r="C92" s="20"/>
+      <c r="C92" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="7">
@@ -2976,9 +2970,7 @@
       <c r="B93" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C93" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C93" s="20"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="7">
@@ -2996,9 +2988,7 @@
       <c r="B95" s="9">
         <v>7.2</v>
       </c>
-      <c r="C95" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C95" s="20"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="7">
@@ -3016,9 +3006,7 @@
       <c r="B97" s="9">
         <v>4.7</v>
       </c>
-      <c r="C97" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C97" s="20"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="7">
@@ -3047,7 +3035,9 @@
       <c r="B100" s="9">
         <v>9.4</v>
       </c>
-      <c r="C100" s="20"/>
+      <c r="C100" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="7">
@@ -3076,9 +3066,7 @@
       <c r="B103" s="9">
         <v>9.1</v>
       </c>
-      <c r="C103" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C103" s="20"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="7">
@@ -3116,9 +3104,7 @@
       <c r="B107" s="9">
         <v>7.4</v>
       </c>
-      <c r="C107" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C107" s="20"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="7">
@@ -3127,7 +3113,9 @@
       <c r="B108" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C108" s="20"/>
+      <c r="C108" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="7">
@@ -3136,9 +3124,7 @@
       <c r="B109" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C109" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C109" s="20"/>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="7">
@@ -3156,9 +3142,7 @@
       <c r="B111" s="9">
         <v>7.1</v>
       </c>
-      <c r="C111" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C111" s="20"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="7">
@@ -3167,7 +3151,9 @@
       <c r="B112" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C112" s="20"/>
+      <c r="C112" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="7">
@@ -3176,9 +3162,7 @@
       <c r="B113" s="9">
         <v>13.4</v>
       </c>
-      <c r="C113" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C113" s="20"/>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="7">
@@ -3196,9 +3180,7 @@
       <c r="B115" s="9">
         <v>11.7</v>
       </c>
-      <c r="C115" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C115" s="20"/>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="7">
@@ -3216,9 +3198,7 @@
       <c r="B117" s="9">
         <v>13.2</v>
       </c>
-      <c r="C117" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C117" s="20"/>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="7">
@@ -3256,9 +3236,7 @@
       <c r="B121" s="9">
         <v>11.6</v>
       </c>
-      <c r="C121" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C121" s="20"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="7">
@@ -3276,9 +3254,7 @@
       <c r="B123" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="C123" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C123" s="20"/>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="7">
@@ -3336,9 +3312,7 @@
       <c r="B129" s="9">
         <v>11.2</v>
       </c>
-      <c r="C129" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C129" s="20"/>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="7">
@@ -3376,9 +3350,7 @@
       <c r="B133" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C133" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C133" s="20"/>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="7">
@@ -3396,9 +3368,7 @@
       <c r="B135" s="9">
         <v>8.1</v>
       </c>
-      <c r="C135" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C135" s="20"/>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="7">
@@ -3407,7 +3377,9 @@
       <c r="B136" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C136" s="20"/>
+      <c r="C136" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="7">
@@ -3416,9 +3388,7 @@
       <c r="B137" s="9">
         <v>1.4</v>
       </c>
-      <c r="C137" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C137" s="20"/>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="7">
@@ -3436,9 +3406,7 @@
       <c r="B139" s="9">
         <v>6.6</v>
       </c>
-      <c r="C139" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C139" s="20"/>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="7">
@@ -3447,7 +3415,9 @@
       <c r="B140" s="9">
         <v>13.2</v>
       </c>
-      <c r="C140" s="20"/>
+      <c r="C140" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="7">
@@ -3456,8 +3426,8 @@
       <c r="B141" s="9">
         <v>5.4</v>
       </c>
-      <c r="C141" s="20" t="s">
-        <v>42</v>
+      <c r="C141" s="29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3487,7 +3457,9 @@
       <c r="B144" s="9">
         <v>11.2</v>
       </c>
-      <c r="C144" s="20"/>
+      <c r="C144" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="7">
@@ -3536,9 +3508,7 @@
       <c r="B149" s="9">
         <v>11.5</v>
       </c>
-      <c r="C149" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C149" s="20"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="7">
@@ -3556,9 +3526,7 @@
       <c r="B151" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C151" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C151" s="20"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="7">
@@ -3567,7 +3535,9 @@
       <c r="B152" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="C152" s="20"/>
+      <c r="C152" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="7">
@@ -3576,9 +3546,7 @@
       <c r="B153" s="9">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C153" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C153" s="20"/>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="7">
@@ -3587,7 +3555,9 @@
       <c r="B154" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C154" s="20"/>
+      <c r="C154" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="7">
@@ -3596,9 +3566,7 @@
       <c r="B155" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C155" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C155" s="20"/>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="7">
@@ -3607,7 +3575,9 @@
       <c r="B156" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C156" s="20"/>
+      <c r="C156" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="7">
@@ -3616,9 +3586,7 @@
       <c r="B157" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C157" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C157" s="20"/>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="7">
@@ -3627,7 +3595,9 @@
       <c r="B158" s="9">
         <v>6.6</v>
       </c>
-      <c r="C158" s="20"/>
+      <c r="C158" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="7">
@@ -3636,8 +3606,8 @@
       <c r="B159" s="9">
         <v>11.4</v>
       </c>
-      <c r="C159" s="20" t="s">
-        <v>42</v>
+      <c r="C159" s="29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3647,7 +3617,9 @@
       <c r="B160" s="9">
         <v>11.2</v>
       </c>
-      <c r="C160" s="20"/>
+      <c r="C160" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="7">
@@ -3656,8 +3628,8 @@
       <c r="B161" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C161" s="20" t="s">
-        <v>42</v>
+      <c r="C161" s="29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3676,9 +3648,7 @@
       <c r="B163" s="9">
         <v>13.2</v>
       </c>
-      <c r="C163" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C163" s="20"/>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="7">
@@ -3707,7 +3677,9 @@
       <c r="B166" s="9">
         <v>8.1</v>
       </c>
-      <c r="C166" s="20"/>
+      <c r="C166" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="7">
@@ -3716,9 +3688,7 @@
       <c r="B167" s="9">
         <v>5.2</v>
       </c>
-      <c r="C167" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C167" s="20"/>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="7">
@@ -3736,9 +3706,7 @@
       <c r="B169" s="9">
         <v>13.2</v>
       </c>
-      <c r="C169" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C169" s="20"/>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="7">
@@ -3747,7 +3715,9 @@
       <c r="B170" s="9">
         <v>4.7</v>
       </c>
-      <c r="C170" s="20"/>
+      <c r="C170" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="7">
@@ -3756,9 +3726,7 @@
       <c r="B171" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="C171" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C171" s="20"/>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="7">
@@ -3767,7 +3735,9 @@
       <c r="B172" s="9">
         <v>10.1</v>
       </c>
-      <c r="C172" s="20"/>
+      <c r="C172" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="7">
@@ -3796,9 +3766,7 @@
       <c r="B175" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C175" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C175" s="20"/>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="7">
@@ -3836,9 +3804,7 @@
       <c r="B179" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C179" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C179" s="20"/>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="7">
@@ -3856,9 +3822,7 @@
       <c r="B181" s="9">
         <v>11.2</v>
       </c>
-      <c r="C181" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C181" s="20"/>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="7">
@@ -3867,7 +3831,9 @@
       <c r="B182" s="9">
         <v>11.7</v>
       </c>
-      <c r="C182" s="20"/>
+      <c r="C182" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="7">
@@ -3896,9 +3862,7 @@
       <c r="B185" s="9">
         <v>13.3</v>
       </c>
-      <c r="C185" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C185" s="20"/>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="7">
@@ -3916,9 +3880,7 @@
       <c r="B187" s="9">
         <v>11.6</v>
       </c>
-      <c r="C187" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C187" s="20"/>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="7">
@@ -3936,9 +3898,7 @@
       <c r="B189" s="9">
         <v>9.4</v>
       </c>
-      <c r="C189" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C189" s="20"/>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="7">
@@ -3956,9 +3916,7 @@
       <c r="B191" s="9">
         <v>11.5</v>
       </c>
-      <c r="C191" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C191" s="20"/>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="7">
@@ -3967,7 +3925,9 @@
       <c r="B192" s="9">
         <v>9.1</v>
       </c>
-      <c r="C192" s="20"/>
+      <c r="C192" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="7">
@@ -3976,9 +3936,7 @@
       <c r="B193" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C193" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C193" s="20"/>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="7">
@@ -3987,7 +3945,9 @@
       <c r="B194" s="9">
         <v>6.5</v>
       </c>
-      <c r="C194" s="20"/>
+      <c r="C194" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="7">
@@ -3996,9 +3956,7 @@
       <c r="B195" s="9">
         <v>10.3</v>
       </c>
-      <c r="C195" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C195" s="20"/>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="7">
@@ -4016,9 +3974,7 @@
       <c r="B197" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C197" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C197" s="20"/>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="7">
@@ -4027,7 +3983,9 @@
       <c r="B198" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C198" s="20"/>
+      <c r="C198" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="7">
@@ -4036,9 +3994,7 @@
       <c r="B199" s="9">
         <v>4.2</v>
       </c>
-      <c r="C199" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C199" s="20"/>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="7">
@@ -4047,7 +4003,9 @@
       <c r="B200" s="9">
         <v>4.7</v>
       </c>
-      <c r="C200" s="20"/>
+      <c r="C200" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="7">
@@ -4067,7 +4025,9 @@
       <c r="B202" s="9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C202" s="20"/>
+      <c r="C202" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="7">
@@ -4087,7 +4047,9 @@
       <c r="B204" s="9">
         <v>9.5</v>
       </c>
-      <c r="C204" s="20"/>
+      <c r="C204" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="7">
@@ -4096,9 +4058,7 @@
       <c r="B205" s="9">
         <v>11.3</v>
       </c>
-      <c r="C205" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C205" s="20"/>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="7">
@@ -4116,9 +4076,7 @@
       <c r="B207" s="9">
         <v>10.1</v>
       </c>
-      <c r="C207" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C207" s="20"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="7">
@@ -4127,7 +4085,9 @@
       <c r="B208" s="9">
         <v>9.5</v>
       </c>
-      <c r="C208" s="20"/>
+      <c r="C208" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="7">
@@ -4136,9 +4096,7 @@
       <c r="B209" s="9">
         <v>4.7</v>
       </c>
-      <c r="C209" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C209" s="20"/>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="7">
@@ -4176,9 +4134,7 @@
       <c r="B213" s="9">
         <v>5.2</v>
       </c>
-      <c r="C213" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C213" s="20"/>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="7">
@@ -4187,7 +4143,9 @@
       <c r="B214" s="9">
         <v>11.5</v>
       </c>
-      <c r="C214" s="20"/>
+      <c r="C214" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="7">
@@ -4196,9 +4154,7 @@
       <c r="B215" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C215" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C215" s="20"/>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="7">
@@ -4207,7 +4163,9 @@
       <c r="B216" s="9">
         <v>6.6</v>
       </c>
-      <c r="C216" s="20"/>
+      <c r="C216" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="7">
@@ -4227,7 +4185,9 @@
       <c r="B218" s="9">
         <v>11.1</v>
       </c>
-      <c r="C218" s="20"/>
+      <c r="C218" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="7">
@@ -4236,9 +4196,7 @@
       <c r="B219" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C219" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="C219" s="20"/>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="7">
@@ -4300,12 +4258,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="32.83203125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="32.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="36" customHeight="1">
@@ -4407,7 +4365,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="28.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -4476,7 +4434,7 @@
         <v>0.53333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="28.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -4700,7 +4658,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="42.95" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>38</v>
       </c>
@@ -6738,12 +6696,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="32.83203125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="32.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="36" customHeight="1">
@@ -6845,7 +6803,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="28.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -6914,7 +6872,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="28.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -7138,7 +7096,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="42.95" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>38</v>
       </c>
@@ -9176,12 +9134,12 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="32.83203125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="32.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="36" customHeight="1">
@@ -9283,7 +9241,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="28.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -9352,7 +9310,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="28.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -9576,7 +9534,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="42.95" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>38</v>
       </c>
@@ -11614,12 +11572,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="32.83203125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="32.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="36" customHeight="1">
@@ -11721,7 +11679,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="28.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -11790,7 +11748,7 @@
         <v>0.68421052631578949</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="28.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -12014,7 +11972,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="42.95" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>38</v>
       </c>
@@ -14052,12 +14010,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="32.83203125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="32.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="36" customHeight="1">
@@ -14159,7 +14117,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="28.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -14228,7 +14186,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="28.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -14452,7 +14410,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="42.95" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>38</v>
       </c>
@@ -16490,12 +16448,12 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="32.83203125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="32.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="36" customHeight="1">
@@ -16597,7 +16555,7 @@
         <v>0.51851851851851849</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="28.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -16666,7 +16624,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="28.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -16890,7 +16848,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="43" customHeight="1">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="42.95" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>38</v>
       </c>
